--- a/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>HVBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,138 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2700</v>
       </c>
       <c r="H8" s="3">
         <v>2700</v>
       </c>
       <c r="I8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
         <v>1100</v>
       </c>
       <c r="F17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>1800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1277,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1800</v>
       </c>
       <c r="H20" s="3">
         <v>-1700</v>
       </c>
       <c r="I20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-900</v>
       </c>
       <c r="N20" s="3">
         <v>-1100</v>
       </c>
       <c r="O20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>400</v>
+      </c>
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>200</v>
       </c>
       <c r="K21" s="3">
         <v>300</v>
       </c>
       <c r="L21" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="M21" s="3">
         <v>300</v>
       </c>
       <c r="N21" s="3">
+        <v>400</v>
+      </c>
+      <c r="O21" s="3">
+        <v>300</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1432,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>300</v>
       </c>
       <c r="L23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
         <v>300</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>200</v>
       </c>
       <c r="L26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>200</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>100</v>
       </c>
       <c r="K27" s="3">
         <v>200</v>
       </c>
       <c r="L27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
         <v>200</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1800</v>
       </c>
       <c r="H32" s="3">
         <v>1700</v>
       </c>
       <c r="I32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>900</v>
       </c>
       <c r="N32" s="3">
         <v>1100</v>
       </c>
       <c r="O32" s="3">
+        <v>900</v>
+      </c>
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>200</v>
       </c>
       <c r="L33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>200</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>200</v>
       </c>
       <c r="L35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>200</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,102 +2225,116 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1300</v>
       </c>
       <c r="F41" s="3">
         <v>1500</v>
       </c>
       <c r="G41" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H41" s="3">
         <v>1500</v>
       </c>
       <c r="I41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>37600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>74300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F42" s="3">
         <v>25700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>18900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>11400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>15600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>4500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>13400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>13600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>13700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>13900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>27100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>9900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>14100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>5800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2356,17 +2565,17 @@
       <c r="H47" s="3">
         <v>500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="I47" s="3">
+        <v>500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>500</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2383,34 +2592,40 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F48" s="3">
         <v>8100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1800</v>
       </c>
       <c r="L48" s="3">
         <v>1800</v>
@@ -2422,16 +2637,22 @@
         <v>1800</v>
       </c>
       <c r="O48" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="P48" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="Q48" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S48" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
       </c>
       <c r="J52" s="3">
+        <v>600</v>
+      </c>
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
+        <v>500</v>
+      </c>
+      <c r="M52" s="3">
         <v>400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
       </c>
       <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>355600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>354600</v>
+      </c>
+      <c r="F54" s="3">
         <v>356600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>344200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>306700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>320900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>302300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>297800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>263800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>242700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>217900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>216800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>216900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>239100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>177100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>182000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +3058,14 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,20 +3111,26 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F59" s="3">
         <v>5800</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2870,11 +3143,11 @@
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2891,8 +3164,14 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3217,14 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,22 +3270,28 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
+      <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
@@ -3011,11 +3302,11 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>321800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>321000</v>
+      </c>
+      <c r="F66" s="3">
         <v>323300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>311500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>274900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>289500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>271300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>267000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>233300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>210900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>186300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>185300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>185800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>226200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>163900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F72" s="3">
         <v>14800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>14200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>13700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>13700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>13500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>13300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>13100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>14000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>13800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>13500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>13400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>13300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>13200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>33600</v>
+      </c>
+      <c r="F76" s="3">
         <v>33300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>32700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>31800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>31400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>31000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>30700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>30500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>31700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>31700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>31400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>31100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>12900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>13200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>200</v>
       </c>
       <c r="L81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>200</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3860,7 +4257,7 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -3872,10 +4269,16 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-28400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>10600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-6300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>17700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4184,13 +4625,13 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -4199,31 +4640,37 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F94" s="3">
         <v>5400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-8200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-11500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-29000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-25000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-24100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-16900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-12200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-18900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F100" s="3">
         <v>5500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>36000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-14400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>18300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>33700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>21100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>24700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-22500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>62600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F102" s="3">
         <v>7000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>7400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>11000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-8700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-13000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-19000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-40900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>76500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>HVBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,106 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2700</v>
       </c>
       <c r="I8" s="3">
         <v>2700</v>
@@ -769,34 +773,37 @@
         <v>2700</v>
       </c>
       <c r="K8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1500</v>
       </c>
       <c r="P8" s="3">
         <v>1500</v>
       </c>
       <c r="Q8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
       </c>
       <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1800</v>
       </c>
       <c r="G18" s="3">
         <v>1800</v>
       </c>
       <c r="H18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I18" s="3">
         <v>1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1500</v>
       </c>
       <c r="N18" s="3">
         <v>1500</v>
       </c>
       <c r="O18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P18" s="3">
         <v>1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1100</v>
       </c>
       <c r="R18" s="3">
         <v>1100</v>
       </c>
       <c r="S18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T18" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-1800</v>
       </c>
       <c r="F20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1500</v>
       </c>
       <c r="L20" s="3">
         <v>-1500</v>
       </c>
       <c r="M20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q20" s="3">
         <v>-1100</v>
       </c>
       <c r="R20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,40 +1478,43 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>300</v>
       </c>
       <c r="N23" s="3">
         <v>300</v>
@@ -1480,27 +1523,30 @@
         <v>300</v>
       </c>
       <c r="P23" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1509,22 +1555,22 @@
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1533,19 +1579,22 @@
         <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,40 +1646,43 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>200</v>
       </c>
       <c r="N26" s="3">
         <v>200</v>
@@ -1639,51 +1691,54 @@
         <v>200</v>
       </c>
       <c r="P26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>200</v>
       </c>
       <c r="N27" s="3">
         <v>200</v>
@@ -1692,19 +1747,22 @@
         <v>200</v>
       </c>
       <c r="P27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,93 +1982,99 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>1800</v>
       </c>
       <c r="F32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1500</v>
       </c>
       <c r="L32" s="3">
         <v>1500</v>
       </c>
       <c r="M32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1100</v>
       </c>
       <c r="Q32" s="3">
         <v>1100</v>
       </c>
       <c r="R32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>200</v>
       </c>
       <c r="N33" s="3">
         <v>200</v>
@@ -2010,19 +2083,22 @@
         <v>200</v>
       </c>
       <c r="P33" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,40 +2150,43 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>200</v>
       </c>
       <c r="N35" s="3">
         <v>200</v>
@@ -2116,77 +2195,83 @@
         <v>200</v>
       </c>
       <c r="P35" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2313,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1500</v>
       </c>
       <c r="F41" s="3">
         <v>1500</v>
       </c>
       <c r="G41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>74300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E42" s="3">
         <v>18500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>19200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>25700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>18900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>11400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>15600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>4500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>27100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2571,14 +2676,14 @@
       <c r="J47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
+      <c r="K47" s="3">
+        <v>500</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2598,37 +2703,40 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E48" s="3">
         <v>8800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2000</v>
       </c>
       <c r="J48" s="3">
         <v>2000</v>
       </c>
       <c r="K48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L48" s="3">
         <v>1900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1800</v>
       </c>
       <c r="M48" s="3">
         <v>1800</v>
@@ -2643,39 +2751,42 @@
         <v>1800</v>
       </c>
       <c r="Q48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R48" s="3">
         <v>1700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2824,47 +2944,50 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>500</v>
       </c>
       <c r="L52" s="3">
         <v>500</v>
       </c>
       <c r="M52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
       </c>
       <c r="O52" s="3">
+        <v>400</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>424700</v>
+      </c>
+      <c r="E54" s="3">
         <v>355600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>354600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>356600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>344200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>306700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>320900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>302300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>297800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>263800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>242700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>217900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>216800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>216900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>239100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>177100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>182000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,23 +3251,26 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5800</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3149,8 +3286,8 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,16 +3419,19 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3293,8 +3439,8 @@
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
+      <c r="H62" s="3">
+        <v>100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -3308,8 +3454,8 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>389500</v>
+      </c>
+      <c r="E66" s="3">
         <v>321800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>321000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>323300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>311500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>274900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>289500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>271300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>267000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>233300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>210900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>186300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>185300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>185800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>226200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>163900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E72" s="3">
         <v>15100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>13700</v>
       </c>
       <c r="I72" s="3">
         <v>13700</v>
       </c>
       <c r="J72" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K72" s="3">
         <v>13500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E76" s="3">
         <v>33800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>33300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>32700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>31700</v>
       </c>
       <c r="N76" s="3">
         <v>31700</v>
       </c>
       <c r="O76" s="3">
+        <v>31700</v>
+      </c>
+      <c r="P76" s="3">
         <v>31400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,98 +4281,104 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>200</v>
       </c>
       <c r="N81" s="3">
         <v>200</v>
@@ -4192,19 +4387,22 @@
         <v>200</v>
       </c>
       <c r="P81" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,13 +4422,14 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -4263,22 +4462,25 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E89" s="3">
         <v>1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,19 +4836,20 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
@@ -4637,13 +4858,13 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
@@ -4652,10 +4873,10 @@
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
@@ -4664,13 +4885,16 @@
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-52800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>36000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>18300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>33700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>24700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>62600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-19000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-40900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>76500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>HVBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,113 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="3">
         <v>3300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2700</v>
       </c>
       <c r="J8" s="3">
         <v>2700</v>
@@ -776,34 +780,37 @@
         <v>2700</v>
       </c>
       <c r="L8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M8" s="3">
         <v>2400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1700</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1500</v>
       </c>
       <c r="Q8" s="3">
         <v>1500</v>
       </c>
       <c r="R8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S8" s="3">
         <v>1300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
+        <v>400</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1800</v>
       </c>
       <c r="H18" s="3">
         <v>1800</v>
       </c>
       <c r="I18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J18" s="3">
         <v>1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1500</v>
       </c>
       <c r="O18" s="3">
         <v>1500</v>
       </c>
       <c r="P18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1100</v>
       </c>
       <c r="S18" s="3">
         <v>1100</v>
       </c>
       <c r="T18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U18" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-1800</v>
       </c>
       <c r="G20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1500</v>
       </c>
       <c r="M20" s="3">
         <v>-1500</v>
       </c>
       <c r="N20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1100</v>
       </c>
       <c r="R20" s="3">
         <v>-1100</v>
       </c>
       <c r="S20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,43 +1521,46 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>300</v>
       </c>
       <c r="O23" s="3">
         <v>300</v>
@@ -1526,30 +1569,33 @@
         <v>300</v>
       </c>
       <c r="Q23" s="3">
+        <v>300</v>
+      </c>
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1558,22 +1604,22 @@
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -1582,19 +1628,22 @@
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,43 +1698,46 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>100</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>200</v>
       </c>
       <c r="O26" s="3">
         <v>200</v>
@@ -1694,54 +1746,57 @@
         <v>200</v>
       </c>
       <c r="Q26" s="3">
+        <v>200</v>
+      </c>
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>100</v>
       </c>
       <c r="J27" s="3">
         <v>100</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>200</v>
@@ -1750,19 +1805,22 @@
         <v>200</v>
       </c>
       <c r="Q27" s="3">
+        <v>200</v>
+      </c>
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,99 +2052,105 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E32" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>1800</v>
       </c>
       <c r="G32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1500</v>
       </c>
       <c r="M32" s="3">
         <v>1500</v>
       </c>
       <c r="N32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1100</v>
       </c>
       <c r="R32" s="3">
         <v>1100</v>
       </c>
       <c r="S32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
       </c>
       <c r="J33" s="3">
         <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>200</v>
       </c>
       <c r="O33" s="3">
         <v>200</v>
@@ -2086,19 +2159,22 @@
         <v>200</v>
       </c>
       <c r="Q33" s="3">
+        <v>200</v>
+      </c>
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,43 +2229,46 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
       </c>
       <c r="J35" s="3">
         <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>200</v>
       </c>
       <c r="O35" s="3">
         <v>200</v>
@@ -2198,80 +2277,86 @@
         <v>200</v>
       </c>
       <c r="Q35" s="3">
+        <v>200</v>
+      </c>
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2400,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1500</v>
       </c>
       <c r="G41" s="3">
         <v>1500</v>
       </c>
       <c r="H41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>37600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>74300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E42" s="3">
         <v>27100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>18500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>19200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>25700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>18900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>11400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>15600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>27100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2679,14 +2784,14 @@
       <c r="K47" s="3">
         <v>500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
+      <c r="L47" s="3">
+        <v>500</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,31 +2823,31 @@
         <v>10700</v>
       </c>
       <c r="E48" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F48" s="3">
         <v>8800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2000</v>
       </c>
       <c r="K48" s="3">
         <v>2000</v>
       </c>
       <c r="L48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M48" s="3">
         <v>1900</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1800</v>
       </c>
       <c r="N48" s="3">
         <v>1800</v>
@@ -2754,25 +2862,28 @@
         <v>1800</v>
       </c>
       <c r="R48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S48" s="3">
         <v>1700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2788,8 +2899,8 @@
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2947,47 +3067,50 @@
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
-      </c>
-      <c r="L52" s="3">
-        <v>500</v>
       </c>
       <c r="M52" s="3">
         <v>500</v>
       </c>
       <c r="N52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
       </c>
       <c r="P52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>507700</v>
+      </c>
+      <c r="E54" s="3">
         <v>424700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>355600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>354600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>356600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>344200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>306700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>320900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>302300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>297800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>263800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>242700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>217900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>216800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>216900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>239100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>177100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>182000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,17 +3400,17 @@
         <v>8100</v>
       </c>
       <c r="E59" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F59" s="3">
         <v>6300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5800</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3289,8 +3426,8 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,19 +3565,22 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -3442,8 +3588,8 @@
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -3457,8 +3603,8 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>470500</v>
+      </c>
+      <c r="E66" s="3">
         <v>389500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>321800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>321000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>323300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>311500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>274900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>289500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>271300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>267000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>233300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>210900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>186300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>185300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>185800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>226200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>163900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E72" s="3">
         <v>16600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>13700</v>
       </c>
       <c r="J72" s="3">
         <v>13700</v>
       </c>
       <c r="K72" s="3">
+        <v>13700</v>
+      </c>
+      <c r="L72" s="3">
         <v>13500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E76" s="3">
         <v>35300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>33600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>33300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>32700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>31700</v>
       </c>
       <c r="O76" s="3">
         <v>31700</v>
       </c>
       <c r="P76" s="3">
+        <v>31700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>31400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>31100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,104 +4473,110 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
       </c>
       <c r="J81" s="3">
         <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>200</v>
       </c>
       <c r="O81" s="3">
         <v>200</v>
@@ -4390,19 +4585,22 @@
         <v>200</v>
       </c>
       <c r="Q81" s="3">
+        <v>200</v>
+      </c>
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,16 +4621,17 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4465,22 +4664,25 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>17700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,22 +5057,23 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -4861,13 +5082,13 @@
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
@@ -4876,10 +5097,10 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
@@ -4888,13 +5109,16 @@
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-52800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-18900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E100" s="3">
         <v>65500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>36000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>18300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>33700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>24700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>62600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E102" s="3">
         <v>8100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-40900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>76500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>HVBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,165 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F8" s="3">
         <v>3500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2700</v>
       </c>
       <c r="L8" s="3">
         <v>2700</v>
       </c>
       <c r="M8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O8" s="3">
         <v>2400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1101,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1166,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1300</v>
       </c>
       <c r="I17" s="3">
         <v>1100</v>
       </c>
       <c r="J17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="3">
         <v>2400</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2000</v>
       </c>
       <c r="G18" s="3">
         <v>2100</v>
       </c>
       <c r="H18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J18" s="3">
         <v>1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1412,140 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1800</v>
       </c>
       <c r="L20" s="3">
         <v>-1700</v>
       </c>
       <c r="M20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-900</v>
       </c>
       <c r="R20" s="3">
         <v>-1100</v>
       </c>
       <c r="S20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>3000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G21" s="3">
         <v>2200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>200</v>
       </c>
       <c r="O21" s="3">
         <v>300</v>
       </c>
       <c r="P21" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q21" s="3">
         <v>300</v>
       </c>
       <c r="R21" s="3">
+        <v>400</v>
+      </c>
+      <c r="S21" s="3">
+        <v>300</v>
+      </c>
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,126 +1603,144 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G23" s="3">
         <v>2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>300</v>
       </c>
       <c r="P23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
         <v>300</v>
       </c>
       <c r="R23" s="3">
+        <v>300</v>
+      </c>
+      <c r="S23" s="3">
+        <v>300</v>
+      </c>
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>800</v>
+      </c>
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
-      </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>200</v>
       </c>
       <c r="P26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
         <v>200</v>
       </c>
       <c r="R26" s="3">
+        <v>200</v>
+      </c>
+      <c r="S26" s="3">
+        <v>200</v>
+      </c>
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>100</v>
       </c>
       <c r="O27" s="3">
         <v>200</v>
       </c>
       <c r="P27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
         <v>200</v>
       </c>
       <c r="R27" s="3">
+        <v>200</v>
+      </c>
+      <c r="S27" s="3">
+        <v>200</v>
+      </c>
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2188,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1800</v>
       </c>
       <c r="L32" s="3">
         <v>1700</v>
       </c>
       <c r="M32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>900</v>
       </c>
       <c r="R32" s="3">
         <v>1100</v>
       </c>
       <c r="S32" s="3">
+        <v>900</v>
+      </c>
+      <c r="T32" s="3">
         <v>1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>200</v>
       </c>
       <c r="P33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
         <v>200</v>
       </c>
       <c r="R33" s="3">
+        <v>200</v>
+      </c>
+      <c r="S33" s="3">
+        <v>200</v>
+      </c>
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>200</v>
       </c>
       <c r="P35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
         <v>200</v>
       </c>
       <c r="R35" s="3">
+        <v>200</v>
+      </c>
+      <c r="S35" s="3">
+        <v>200</v>
+      </c>
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,126 +2572,140 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E41" s="3">
         <v>1600</v>
       </c>
       <c r="F41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1300</v>
       </c>
       <c r="J41" s="3">
         <v>1500</v>
       </c>
       <c r="K41" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="L41" s="3">
         <v>1500</v>
       </c>
       <c r="M41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>37600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>74300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>6200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>136300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>413000</v>
+      </c>
+      <c r="F42" s="3">
         <v>45400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>27100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>18500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>19200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>25700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>18900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>11400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>15600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>4500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>13400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>13600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>13700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>13900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>27100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>9900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>14100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>5800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2763,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2828,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2893,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2958,14 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2787,17 +2996,17 @@
       <c r="L47" s="3">
         <v>500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="M47" s="3">
+        <v>500</v>
+      </c>
+      <c r="N47" s="3">
+        <v>500</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2814,46 +3023,52 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F48" s="3">
         <v>10700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>10700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>8800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>8500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>8100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1800</v>
       </c>
       <c r="P48" s="3">
         <v>1800</v>
@@ -2865,31 +3080,37 @@
         <v>1800</v>
       </c>
       <c r="S48" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="T48" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="U48" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W48" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2902,11 +3123,11 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2932,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3283,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>600</v>
       </c>
       <c r="M52" s="3">
         <v>500</v>
       </c>
       <c r="N52" s="3">
+        <v>600</v>
+      </c>
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q52" s="3">
         <v>400</v>
-      </c>
-      <c r="P52" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>300</v>
       </c>
       <c r="R52" s="3">
         <v>400</v>
       </c>
       <c r="S52" s="3">
+        <v>300</v>
+      </c>
+      <c r="T52" s="3">
+        <v>400</v>
+      </c>
+      <c r="U52" s="3">
         <v>600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>595700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>861600</v>
+      </c>
+      <c r="F54" s="3">
         <v>507700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>424700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>355600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>354600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>356600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>344200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>306700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>320900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>302300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>297800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>263800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>242700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>217900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>216800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>216900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>239100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>177100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>182000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3532,10 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3593,14 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,32 +3658,38 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F59" s="3">
         <v>8100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>8100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3429,11 +3702,11 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3450,8 +3723,14 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3788,14 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,34 +3853,40 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
+      <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
+        <v>100</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
@@ -3606,11 +3897,11 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3627,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>555900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>822700</v>
+      </c>
+      <c r="F66" s="3">
         <v>470500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>389500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>321800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>321000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>323300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>311500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>274900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>289500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>271300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>267000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>233300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>210900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>186300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>185300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>185800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>226200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>163900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F72" s="3">
         <v>18700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>16600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>15100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>15000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>14800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>14200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>13700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>13700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>13500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>13300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>13100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>14000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>13800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>13500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>13400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>13300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>13200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>38900</v>
+      </c>
+      <c r="F76" s="3">
         <v>37200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>35300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>33800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>33600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>33300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>32700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>31800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>31400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>31000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>30700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>30500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>31700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>31700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>31400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>31100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>12900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>13200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>200</v>
       </c>
       <c r="P81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
         <v>200</v>
       </c>
       <c r="R81" s="3">
+        <v>200</v>
+      </c>
+      <c r="S81" s="3">
+        <v>200</v>
+      </c>
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,22 +5017,24 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -4667,7 +5064,7 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -4679,10 +5076,16 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-54000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-28400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>10600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-6300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>17700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,16 +5497,18 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
@@ -5079,13 +5520,13 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
@@ -5094,31 +5535,37 @@
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-52800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-6500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>5400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-11500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-29000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-25000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-24100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-12200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-18900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-3800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-267800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>350700</v>
+      </c>
+      <c r="F100" s="3">
         <v>78500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>65500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>5500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>36000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-14400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>18300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>33700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>21100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>24700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-22500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>62600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-4900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +6168,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-276400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>367500</v>
+      </c>
+      <c r="F102" s="3">
         <v>18500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>8100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>7000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>7400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>11000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-8700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-19000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-40900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>76500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-3500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>HVBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,133 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2700</v>
       </c>
       <c r="M8" s="3">
         <v>2700</v>
@@ -796,34 +800,37 @@
         <v>2700</v>
       </c>
       <c r="O8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P8" s="3">
         <v>2400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1700</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1500</v>
       </c>
       <c r="T8" s="3">
         <v>1500</v>
       </c>
       <c r="U8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V8" s="3">
         <v>1300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E18" s="3">
         <v>3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1800</v>
       </c>
       <c r="K18" s="3">
         <v>1800</v>
       </c>
       <c r="L18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M18" s="3">
         <v>1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1500</v>
       </c>
       <c r="R18" s="3">
         <v>1500</v>
       </c>
       <c r="S18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T18" s="3">
         <v>1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1300</v>
-      </c>
-      <c r="U18" s="3">
-        <v>1100</v>
       </c>
       <c r="V18" s="3">
         <v>1100</v>
       </c>
       <c r="W18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X18" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-1800</v>
       </c>
       <c r="J20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1500</v>
       </c>
       <c r="P20" s="3">
         <v>-1500</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1100</v>
       </c>
       <c r="U20" s="3">
         <v>-1100</v>
       </c>
       <c r="V20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="W20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1900</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3000</v>
       </c>
       <c r="F21" s="3">
         <v>3000</v>
       </c>
       <c r="G21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H21" s="3">
         <v>2200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1649,11 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1618,43 +1661,43 @@
         <v>1800</v>
       </c>
       <c r="E23" s="3">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="F23" s="3">
         <v>2800</v>
       </c>
       <c r="G23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H23" s="3">
         <v>2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>300</v>
       </c>
       <c r="R23" s="3">
         <v>300</v>
@@ -1663,19 +1706,22 @@
         <v>300</v>
       </c>
       <c r="T23" s="3">
+        <v>300</v>
+      </c>
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1683,19 +1729,19 @@
         <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F24" s="3">
         <v>800</v>
       </c>
       <c r="G24" s="3">
+        <v>800</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
@@ -1704,22 +1750,22 @@
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
@@ -1728,19 +1774,22 @@
         <v>100</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,43 +1865,43 @@
         <v>1300</v>
       </c>
       <c r="E26" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="F26" s="3">
         <v>2100</v>
       </c>
       <c r="G26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>200</v>
       </c>
       <c r="R26" s="3">
         <v>200</v>
@@ -1858,19 +1910,22 @@
         <v>200</v>
       </c>
       <c r="T26" s="3">
+        <v>200</v>
+      </c>
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,43 +1933,43 @@
         <v>1300</v>
       </c>
       <c r="E27" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="F27" s="3">
         <v>2100</v>
       </c>
       <c r="G27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>100</v>
       </c>
       <c r="M27" s="3">
         <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>200</v>
       </c>
       <c r="R27" s="3">
         <v>200</v>
@@ -1923,19 +1978,22 @@
         <v>200</v>
       </c>
       <c r="T27" s="3">
+        <v>200</v>
+      </c>
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,73 +2261,79 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>1800</v>
       </c>
       <c r="J32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1500</v>
       </c>
       <c r="P32" s="3">
         <v>1500</v>
       </c>
       <c r="Q32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1100</v>
       </c>
       <c r="U32" s="3">
         <v>1100</v>
       </c>
       <c r="V32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2268,43 +2341,43 @@
         <v>1300</v>
       </c>
       <c r="E33" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="F33" s="3">
         <v>2100</v>
       </c>
       <c r="G33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>100</v>
       </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>200</v>
       </c>
       <c r="R33" s="3">
         <v>200</v>
@@ -2313,19 +2386,22 @@
         <v>200</v>
       </c>
       <c r="T33" s="3">
+        <v>200</v>
+      </c>
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2398,43 +2477,43 @@
         <v>1300</v>
       </c>
       <c r="E35" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="F35" s="3">
         <v>2100</v>
       </c>
       <c r="G35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>100</v>
       </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>200</v>
       </c>
       <c r="R35" s="3">
         <v>200</v>
@@ -2443,89 +2522,95 @@
         <v>200</v>
       </c>
       <c r="T35" s="3">
+        <v>200</v>
+      </c>
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,138 +2660,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1500</v>
       </c>
       <c r="J41" s="3">
         <v>1500</v>
       </c>
       <c r="K41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>37600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>74300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E42" s="3">
         <v>136300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>413000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>45400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>27100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>18500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>19200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>25700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>18900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>15600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>27100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>9900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3002,14 +3107,14 @@
       <c r="N47" s="3">
         <v>500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
+      <c r="O47" s="3">
+        <v>500</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3029,49 +3134,52 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E48" s="3">
         <v>12400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>10700</v>
       </c>
       <c r="G48" s="3">
         <v>10700</v>
       </c>
       <c r="H48" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I48" s="3">
         <v>8800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>2000</v>
       </c>
       <c r="N48" s="3">
         <v>2000</v>
       </c>
       <c r="O48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P48" s="3">
         <v>1900</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1800</v>
       </c>
       <c r="Q48" s="3">
         <v>1800</v>
@@ -3086,34 +3194,37 @@
         <v>1800</v>
       </c>
       <c r="U48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V48" s="3">
         <v>1700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E49" s="3">
         <v>2800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3129,8 +3240,8 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3319,43 +3439,46 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
-      </c>
-      <c r="O52" s="3">
-        <v>500</v>
       </c>
       <c r="P52" s="3">
         <v>500</v>
       </c>
       <c r="Q52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R52" s="3">
         <v>400</v>
       </c>
       <c r="S52" s="3">
+        <v>400</v>
+      </c>
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>100</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>548600</v>
+      </c>
+      <c r="E54" s="3">
         <v>595700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>861600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>507700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>424700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>355600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>354600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>356600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>344200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>306700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>320900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>302300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>297800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>263800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>242700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>217900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>216800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>216900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>239100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>177100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>182000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,35 +3798,38 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E59" s="3">
         <v>9600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>8100</v>
       </c>
       <c r="G59" s="3">
         <v>8100</v>
       </c>
       <c r="H59" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I59" s="3">
         <v>6300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3708,8 +3845,8 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,13 +3934,16 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3870,17 +4016,17 @@
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -3888,8 +4034,8 @@
       <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
@@ -3903,8 +4049,8 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>507100</v>
+      </c>
+      <c r="E66" s="3">
         <v>555900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>822700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>470500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>389500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>321800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>321000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>323300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>311500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>274900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>289500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>271300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>267000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>233300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>210900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>186300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>185300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>185800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>226200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>163900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E72" s="3">
         <v>22000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>13700</v>
       </c>
       <c r="M72" s="3">
         <v>13700</v>
       </c>
       <c r="N72" s="3">
+        <v>13700</v>
+      </c>
+      <c r="O72" s="3">
         <v>13500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E76" s="3">
         <v>39900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>37200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>33800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>31700</v>
       </c>
       <c r="R76" s="3">
         <v>31700</v>
       </c>
       <c r="S76" s="3">
+        <v>31700</v>
+      </c>
+      <c r="T76" s="3">
         <v>31400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>31100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4938,43 +5133,43 @@
         <v>1300</v>
       </c>
       <c r="E81" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="F81" s="3">
         <v>2100</v>
       </c>
       <c r="G81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>100</v>
       </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>200</v>
       </c>
       <c r="R81" s="3">
         <v>200</v>
@@ -4983,19 +5178,22 @@
         <v>200</v>
       </c>
       <c r="T81" s="3">
+        <v>200</v>
+      </c>
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5028,16 +5227,16 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -5070,22 +5269,25 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E89" s="3">
         <v>24400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-54000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-28400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>17700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5508,22 +5729,22 @@
         <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -5532,13 +5753,13 @@
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
@@ -5547,10 +5768,10 @@
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
@@ -5559,13 +5780,16 @@
         <v>-100</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-33000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-52800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-18900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-267800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>350700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>78500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>65500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>36000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>18300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>33700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>21100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>24700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-22500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>62600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-276400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>367500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-19000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-40900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>76500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>HVBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,140 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2700</v>
       </c>
       <c r="N8" s="3">
         <v>2700</v>
@@ -803,34 +807,37 @@
         <v>2700</v>
       </c>
       <c r="P8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q8" s="3">
         <v>2400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1500</v>
       </c>
       <c r="U8" s="3">
         <v>1500</v>
       </c>
       <c r="V8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W8" s="3">
         <v>1300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1312,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,135 +1322,141 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
       </c>
       <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
       <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E18" s="3">
         <v>3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1800</v>
       </c>
       <c r="L18" s="3">
         <v>1800</v>
       </c>
       <c r="M18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N18" s="3">
         <v>1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1500</v>
       </c>
       <c r="S18" s="3">
         <v>1500</v>
       </c>
       <c r="T18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U18" s="3">
         <v>1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1300</v>
-      </c>
-      <c r="V18" s="3">
-        <v>1100</v>
       </c>
       <c r="W18" s="3">
         <v>1100</v>
       </c>
       <c r="X18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1481,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-1800</v>
       </c>
       <c r="K20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1500</v>
       </c>
       <c r="Q20" s="3">
         <v>-1500</v>
       </c>
       <c r="R20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-900</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-1100</v>
       </c>
       <c r="V20" s="3">
         <v>-1100</v>
       </c>
       <c r="W20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1900</v>
-      </c>
-      <c r="F21" s="3">
-        <v>3000</v>
       </c>
       <c r="G21" s="3">
         <v>3000</v>
       </c>
       <c r="H21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I21" s="3">
         <v>2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,55 +1692,58 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E23" s="3">
         <v>1800</v>
       </c>
       <c r="F23" s="3">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="G23" s="3">
         <v>2800</v>
       </c>
       <c r="H23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>300</v>
       </c>
       <c r="S23" s="3">
         <v>300</v>
@@ -1709,42 +1752,45 @@
         <v>300</v>
       </c>
       <c r="U23" s="3">
+        <v>300</v>
+      </c>
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>500</v>
       </c>
       <c r="F24" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G24" s="3">
         <v>800</v>
       </c>
       <c r="H24" s="3">
+        <v>800</v>
+      </c>
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1753,22 +1799,22 @@
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
@@ -1777,19 +1823,22 @@
         <v>100</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,55 +1905,58 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E26" s="3">
         <v>1300</v>
       </c>
       <c r="F26" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="G26" s="3">
         <v>2100</v>
       </c>
       <c r="H26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>200</v>
       </c>
       <c r="S26" s="3">
         <v>200</v>
@@ -1913,66 +1965,69 @@
         <v>200</v>
       </c>
       <c r="U26" s="3">
+        <v>200</v>
+      </c>
+      <c r="V26" s="3">
         <v>100</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E27" s="3">
         <v>1300</v>
       </c>
       <c r="F27" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="G27" s="3">
         <v>2100</v>
       </c>
       <c r="H27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>200</v>
       </c>
       <c r="S27" s="3">
         <v>200</v>
@@ -1981,19 +2036,22 @@
         <v>200</v>
       </c>
       <c r="U27" s="3">
+        <v>200</v>
+      </c>
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,123 +2331,129 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>1800</v>
       </c>
       <c r="K32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1500</v>
       </c>
       <c r="Q32" s="3">
         <v>1500</v>
       </c>
       <c r="R32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>900</v>
-      </c>
-      <c r="U32" s="3">
-        <v>1100</v>
       </c>
       <c r="V32" s="3">
         <v>1100</v>
       </c>
       <c r="W32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E33" s="3">
         <v>1300</v>
       </c>
       <c r="F33" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="G33" s="3">
         <v>2100</v>
       </c>
       <c r="H33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>200</v>
       </c>
       <c r="S33" s="3">
         <v>200</v>
@@ -2389,19 +2462,22 @@
         <v>200</v>
       </c>
       <c r="U33" s="3">
+        <v>200</v>
+      </c>
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,55 +2544,58 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E35" s="3">
         <v>1300</v>
       </c>
       <c r="F35" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="G35" s="3">
         <v>2100</v>
       </c>
       <c r="H35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>200</v>
       </c>
       <c r="S35" s="3">
         <v>200</v>
@@ -2525,92 +2604,98 @@
         <v>200</v>
       </c>
       <c r="U35" s="3">
+        <v>200</v>
+      </c>
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,144 +2747,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E41" s="3">
         <v>6400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1500</v>
       </c>
       <c r="K41" s="3">
         <v>1500</v>
       </c>
       <c r="L41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>37600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>74300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E42" s="3">
         <v>73100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>136300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>413000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>45400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>27100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>18500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>25700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>18900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>15600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>27100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>9900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>5800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3110,14 +3215,14 @@
       <c r="O47" s="3">
         <v>500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
+      <c r="P47" s="3">
+        <v>500</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3137,52 +3242,55 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E48" s="3">
         <v>12500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>10700</v>
       </c>
       <c r="H48" s="3">
         <v>10700</v>
       </c>
       <c r="I48" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J48" s="3">
         <v>8800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2000</v>
       </c>
       <c r="O48" s="3">
         <v>2000</v>
       </c>
       <c r="P48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1800</v>
       </c>
       <c r="R48" s="3">
         <v>1800</v>
@@ -3197,37 +3305,40 @@
         <v>1800</v>
       </c>
       <c r="V48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W48" s="3">
         <v>1700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E49" s="3">
         <v>3100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3243,8 +3354,8 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3442,43 +3562,46 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
-      </c>
-      <c r="P52" s="3">
-        <v>500</v>
       </c>
       <c r="Q52" s="3">
         <v>500</v>
       </c>
       <c r="R52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S52" s="3">
         <v>400</v>
       </c>
       <c r="T52" s="3">
+        <v>400</v>
+      </c>
+      <c r="U52" s="3">
         <v>300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>100</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>536300</v>
+      </c>
+      <c r="E54" s="3">
         <v>548600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>595700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>861600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>507700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>424700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>355600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>354600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>356600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>344200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>306700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>320900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>302300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>297800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>263800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>242700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>217900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>216800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>216900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>239100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>177100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>182000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,38 +3935,41 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E59" s="3">
         <v>9400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>8100</v>
       </c>
       <c r="H59" s="3">
         <v>8100</v>
       </c>
       <c r="I59" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J59" s="3">
         <v>6300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3848,8 +3985,8 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,7 +4089,7 @@
         <v>10000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4019,17 +4165,17 @@
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -4037,8 +4183,8 @@
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
+      <c r="M62" s="3">
+        <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
@@ -4052,8 +4198,8 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>493800</v>
+      </c>
+      <c r="E66" s="3">
         <v>507100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>555900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>822700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>470500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>389500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>321800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>321000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>323300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>311500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>274900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>289500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>271300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>267000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>233300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>210900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>186300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>185300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>185800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>226200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>163900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E72" s="3">
         <v>23300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>22000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>13700</v>
       </c>
       <c r="N72" s="3">
         <v>13700</v>
       </c>
       <c r="O72" s="3">
+        <v>13700</v>
+      </c>
+      <c r="P72" s="3">
         <v>13500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E76" s="3">
         <v>41400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>39900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>37200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>31700</v>
       </c>
       <c r="S76" s="3">
         <v>31700</v>
       </c>
       <c r="T76" s="3">
+        <v>31700</v>
+      </c>
+      <c r="U76" s="3">
         <v>31400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>31100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,128 +5240,134 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E81" s="3">
         <v>1300</v>
       </c>
       <c r="F81" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="G81" s="3">
         <v>2100</v>
       </c>
       <c r="H81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>200</v>
       </c>
       <c r="S81" s="3">
         <v>200</v>
@@ -5181,19 +5376,22 @@
         <v>200</v>
       </c>
       <c r="U81" s="3">
+        <v>200</v>
+      </c>
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5230,16 +5429,16 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -5272,22 +5471,25 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-54000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-28400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>17700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,34 +5940,35 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
@@ -5756,13 +5977,13 @@
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
@@ -5771,10 +5992,10 @@
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
@@ -5783,13 +6004,16 @@
         <v>-100</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E94" s="3">
         <v>800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-33000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-52800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-18900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-47800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-267800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>350700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>78500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>65500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>36000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>18300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>33700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>21100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>24700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-22500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>62600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-58600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-276400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>367500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-19000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-40900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>76500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>HVBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,146 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E8" s="3">
         <v>4600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2700</v>
       </c>
       <c r="O8" s="3">
         <v>2700</v>
@@ -810,34 +813,37 @@
         <v>2700</v>
       </c>
       <c r="Q8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R8" s="3">
         <v>2400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1700</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1500</v>
       </c>
       <c r="V8" s="3">
         <v>1500</v>
       </c>
       <c r="W8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X8" s="3">
         <v>1300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,79 +1338,83 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
       </c>
       <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
       </c>
       <c r="T17" s="3">
+        <v>400</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
-      </c>
-      <c r="V17" s="3">
-        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>200</v>
       </c>
       <c r="X17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,70 +1422,73 @@
         <v>3800</v>
       </c>
       <c r="E18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1800</v>
       </c>
       <c r="M18" s="3">
         <v>1800</v>
       </c>
       <c r="N18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O18" s="3">
         <v>1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1600</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1500</v>
       </c>
       <c r="T18" s="3">
         <v>1500</v>
       </c>
       <c r="U18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V18" s="3">
         <v>1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1300</v>
-      </c>
-      <c r="W18" s="3">
-        <v>1100</v>
       </c>
       <c r="X18" s="3">
         <v>1100</v>
       </c>
       <c r="Y18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-1800</v>
       </c>
       <c r="L20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1500</v>
       </c>
       <c r="R20" s="3">
         <v>-1500</v>
       </c>
       <c r="S20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-900</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-1100</v>
       </c>
       <c r="W20" s="3">
         <v>-1100</v>
       </c>
       <c r="X20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>600</v>
+      </c>
+      <c r="E21" s="3">
         <v>1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1900</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3000</v>
       </c>
       <c r="H21" s="3">
         <v>3000</v>
       </c>
       <c r="I21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J21" s="3">
         <v>2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,58 +1734,61 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1800</v>
       </c>
       <c r="F23" s="3">
         <v>1800</v>
       </c>
       <c r="G23" s="3">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="H23" s="3">
         <v>2800</v>
       </c>
       <c r="I23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>300</v>
       </c>
       <c r="T23" s="3">
         <v>300</v>
@@ -1755,45 +1797,48 @@
         <v>300</v>
       </c>
       <c r="V23" s="3">
+        <v>300</v>
+      </c>
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>500</v>
       </c>
       <c r="F24" s="3">
         <v>500</v>
       </c>
       <c r="G24" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="H24" s="3">
         <v>800</v>
       </c>
       <c r="I24" s="3">
+        <v>800</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -1802,22 +1847,22 @@
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
@@ -1826,19 +1871,22 @@
         <v>100</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,58 +1956,61 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1300</v>
       </c>
       <c r="F26" s="3">
         <v>1300</v>
       </c>
       <c r="G26" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="H26" s="3">
         <v>2100</v>
       </c>
       <c r="I26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>200</v>
       </c>
       <c r="T26" s="3">
         <v>200</v>
@@ -1968,69 +2019,72 @@
         <v>200</v>
       </c>
       <c r="V26" s="3">
+        <v>200</v>
+      </c>
+      <c r="W26" s="3">
         <v>100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1300</v>
       </c>
       <c r="F27" s="3">
         <v>1300</v>
       </c>
       <c r="G27" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="H27" s="3">
         <v>2100</v>
       </c>
       <c r="I27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>100</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>200</v>
       </c>
       <c r="T27" s="3">
         <v>200</v>
@@ -2039,19 +2093,22 @@
         <v>200</v>
       </c>
       <c r="V27" s="3">
+        <v>200</v>
+      </c>
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,129 +2400,135 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>1800</v>
       </c>
       <c r="L32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1500</v>
       </c>
       <c r="R32" s="3">
         <v>1500</v>
       </c>
       <c r="S32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T32" s="3">
         <v>1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>900</v>
-      </c>
-      <c r="V32" s="3">
-        <v>1100</v>
       </c>
       <c r="W32" s="3">
         <v>1100</v>
       </c>
       <c r="X32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1300</v>
       </c>
       <c r="F33" s="3">
         <v>1300</v>
       </c>
       <c r="G33" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="H33" s="3">
         <v>2100</v>
       </c>
       <c r="I33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>200</v>
       </c>
       <c r="T33" s="3">
         <v>200</v>
@@ -2465,19 +2537,22 @@
         <v>200</v>
       </c>
       <c r="V33" s="3">
+        <v>200</v>
+      </c>
+      <c r="W33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,58 +2622,61 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1300</v>
       </c>
       <c r="F35" s="3">
         <v>1300</v>
       </c>
       <c r="G35" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="H35" s="3">
         <v>2100</v>
       </c>
       <c r="I35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>200</v>
       </c>
       <c r="T35" s="3">
         <v>200</v>
@@ -2607,95 +2685,101 @@
         <v>200</v>
       </c>
       <c r="V35" s="3">
+        <v>200</v>
+      </c>
+      <c r="W35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,150 +2833,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E41" s="3">
         <v>9400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1500</v>
       </c>
       <c r="L41" s="3">
         <v>1500</v>
       </c>
       <c r="M41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>37600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>74300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>114300</v>
+      </c>
+      <c r="E42" s="3">
         <v>75300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>73100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>136300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>413000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>45400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>27100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>18500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>25700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>18900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>13900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>27100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>9900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>5800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3218,14 +3322,14 @@
       <c r="P47" s="3">
         <v>500</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
+      <c r="Q47" s="3">
+        <v>500</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3245,55 +3349,58 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E48" s="3">
         <v>12200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>10700</v>
       </c>
       <c r="I48" s="3">
         <v>10700</v>
       </c>
       <c r="J48" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K48" s="3">
         <v>8800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2000</v>
       </c>
       <c r="P48" s="3">
         <v>2000</v>
       </c>
       <c r="Q48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R48" s="3">
         <v>1900</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1800</v>
       </c>
       <c r="S48" s="3">
         <v>1800</v>
@@ -3308,16 +3415,19 @@
         <v>1800</v>
       </c>
       <c r="W48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X48" s="3">
         <v>1700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3325,23 +3435,23 @@
         <v>3400</v>
       </c>
       <c r="E49" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F49" s="3">
         <v>3100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3357,8 +3467,8 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3565,43 +3684,46 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>500</v>
       </c>
       <c r="R52" s="3">
         <v>500</v>
       </c>
       <c r="S52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T52" s="3">
         <v>400</v>
       </c>
       <c r="U52" s="3">
+        <v>400</v>
+      </c>
+      <c r="V52" s="3">
         <v>300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>100</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>560100</v>
+      </c>
+      <c r="E54" s="3">
         <v>536300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>548600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>595700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>861600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>507700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>424700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>355600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>354600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>356600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>344200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>306700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>320900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>302300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>297800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>263800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>242700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>217900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>216800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>216900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>239100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>177100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>182000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3867,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,41 +4071,44 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E59" s="3">
         <v>9200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7900</v>
-      </c>
-      <c r="H59" s="3">
-        <v>8100</v>
       </c>
       <c r="I59" s="3">
         <v>8100</v>
       </c>
       <c r="J59" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K59" s="3">
         <v>6300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3988,8 +4124,8 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4009,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4092,7 +4234,7 @@
         <v>10000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4168,17 +4313,17 @@
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -4186,8 +4331,8 @@
       <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
+      <c r="N62" s="3">
+        <v>100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
@@ -4201,8 +4346,8 @@
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>517500</v>
+      </c>
+      <c r="E66" s="3">
         <v>493800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>507100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>555900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>822700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>470500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>389500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>321800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>321000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>323300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>311500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>274900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>289500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>271300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>267000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>233300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>210900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>186300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>185300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>185800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>226200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>163900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E72" s="3">
         <v>24400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>23300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>22000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>13700</v>
       </c>
       <c r="O72" s="3">
         <v>13700</v>
       </c>
       <c r="P72" s="3">
+        <v>13700</v>
+      </c>
+      <c r="Q72" s="3">
         <v>13500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E76" s="3">
         <v>42500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>39900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>37200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>35300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30500</v>
-      </c>
-      <c r="S76" s="3">
-        <v>31700</v>
       </c>
       <c r="T76" s="3">
         <v>31700</v>
       </c>
       <c r="U76" s="3">
+        <v>31700</v>
+      </c>
+      <c r="V76" s="3">
         <v>31400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>31100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,134 +5431,140 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1300</v>
       </c>
       <c r="F81" s="3">
         <v>1300</v>
       </c>
       <c r="G81" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="H81" s="3">
         <v>2100</v>
       </c>
       <c r="I81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>200</v>
       </c>
       <c r="T81" s="3">
         <v>200</v>
@@ -5379,19 +5573,22 @@
         <v>200</v>
       </c>
       <c r="V81" s="3">
+        <v>200</v>
+      </c>
+      <c r="W81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5432,16 +5630,16 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -5474,22 +5672,25 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
       <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
         <v>100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-54000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-28400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>17700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,37 +6160,38 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-400</v>
       </c>
       <c r="F91" s="3">
         <v>-400</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
@@ -5980,13 +6200,13 @@
         <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
@@ -5995,10 +6215,10 @@
         <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
@@ -6007,13 +6227,16 @@
         <v>-100</v>
       </c>
       <c r="X91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E94" s="3">
         <v>16700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-33000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-52800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-29000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-12200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-18900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-47800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-267800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>350700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>78500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>65500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>36000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>18300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>33700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>24700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-22500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>62600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E102" s="3">
         <v>5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-58600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-276400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>367500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-19000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-40900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>76500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>HVBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,199 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2900</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2700</v>
       </c>
       <c r="Q8" s="3">
         <v>2700</v>
       </c>
       <c r="R8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T8" s="3">
         <v>2400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +930,14 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1010,14 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1044,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1120,14 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1200,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1280,14 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1360,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1391,170 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1300</v>
       </c>
       <c r="N17" s="3">
         <v>1100</v>
       </c>
       <c r="O17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>300</v>
       </c>
       <c r="W17" s="3">
         <v>200</v>
       </c>
       <c r="X17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2000</v>
       </c>
       <c r="L18" s="3">
         <v>2100</v>
       </c>
       <c r="M18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O18" s="3">
         <v>1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1581,170 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1800</v>
       </c>
       <c r="Q20" s="3">
         <v>-1700</v>
       </c>
       <c r="R20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-900</v>
       </c>
       <c r="W20" s="3">
         <v>-1100</v>
       </c>
       <c r="X20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>900</v>
+      </c>
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
-      </c>
-      <c r="R21" s="3">
-        <v>300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>200</v>
       </c>
       <c r="T21" s="3">
         <v>300</v>
       </c>
       <c r="U21" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="V21" s="3">
         <v>300</v>
       </c>
       <c r="W21" s="3">
+        <v>400</v>
+      </c>
+      <c r="X21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1817,174 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>700</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>100</v>
       </c>
       <c r="T23" s="3">
         <v>300</v>
       </c>
       <c r="U23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
         <v>300</v>
       </c>
       <c r="W23" s="3">
+        <v>300</v>
+      </c>
+      <c r="X23" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
-      </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>100</v>
       </c>
       <c r="W24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2057,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>600</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>100</v>
       </c>
       <c r="T26" s="3">
         <v>200</v>
       </c>
       <c r="U26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
         <v>200</v>
       </c>
       <c r="W26" s="3">
+        <v>200</v>
+      </c>
+      <c r="X26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>600</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>100</v>
       </c>
       <c r="T27" s="3">
         <v>200</v>
       </c>
       <c r="U27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
         <v>200</v>
       </c>
       <c r="W27" s="3">
+        <v>200</v>
+      </c>
+      <c r="X27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2297,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2377,14 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2537,174 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F32" s="3">
         <v>3400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1800</v>
       </c>
       <c r="Q32" s="3">
         <v>1700</v>
       </c>
       <c r="R32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1300</v>
-      </c>
-      <c r="U32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="V32" s="3">
-        <v>900</v>
       </c>
       <c r="W32" s="3">
         <v>1100</v>
       </c>
       <c r="X32" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y32" s="3">
         <v>1100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>600</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>100</v>
       </c>
       <c r="T33" s="3">
         <v>200</v>
       </c>
       <c r="U33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
         <v>200</v>
       </c>
       <c r="W33" s="3">
+        <v>200</v>
+      </c>
+      <c r="X33" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2777,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>600</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>100</v>
       </c>
       <c r="T35" s="3">
         <v>200</v>
       </c>
       <c r="U35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
         <v>200</v>
       </c>
       <c r="W35" s="3">
+        <v>200</v>
+      </c>
+      <c r="X35" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,156 +3006,170 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F41" s="3">
         <v>6500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>9400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1700</v>
       </c>
       <c r="J41" s="3">
         <v>1600</v>
       </c>
       <c r="K41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1300</v>
       </c>
       <c r="O41" s="3">
         <v>1500</v>
       </c>
       <c r="P41" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="Q41" s="3">
         <v>1500</v>
       </c>
       <c r="R41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>37600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>74300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>6200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>109300</v>
+      </c>
+      <c r="F42" s="3">
         <v>114300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>75300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>73100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>136300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>413000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>45400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>27100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>18500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>19200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>25700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>18900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>11400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>15600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>4500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>13400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>13600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>13700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>13900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>27100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>9900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>14100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>5800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3242,14 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3322,14 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3402,14 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3482,14 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3325,17 +3535,17 @@
       <c r="Q47" s="3">
         <v>500</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="R47" s="3">
+        <v>500</v>
+      </c>
+      <c r="S47" s="3">
+        <v>500</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3352,61 +3562,67 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F48" s="3">
         <v>11800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>12200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>12500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>12400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>10500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>10700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>8100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1900</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1800</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1800</v>
       </c>
       <c r="U48" s="3">
         <v>1800</v>
@@ -3418,46 +3634,52 @@
         <v>1800</v>
       </c>
       <c r="X48" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="Y48" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="Z48" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>200</v>
+      </c>
+      <c r="F49" s="3">
         <v>3400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>500</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3470,11 +3692,11 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3500,8 +3722,14 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3882,14 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3687,43 +3927,49 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>600</v>
       </c>
       <c r="R52" s="3">
         <v>500</v>
       </c>
       <c r="S52" s="3">
+        <v>600</v>
+      </c>
+      <c r="T52" s="3">
         <v>500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
+        <v>500</v>
+      </c>
+      <c r="V52" s="3">
         <v>400</v>
-      </c>
-      <c r="U52" s="3">
-        <v>400</v>
-      </c>
-      <c r="V52" s="3">
-        <v>300</v>
       </c>
       <c r="W52" s="3">
         <v>400</v>
       </c>
       <c r="X52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z52" s="3">
         <v>600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>100</v>
       </c>
-      <c r="Z52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +4042,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>570600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>556500</v>
+      </c>
+      <c r="F54" s="3">
         <v>560100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>536300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>548600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>595700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>861600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>507700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>424700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>355600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>354600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>356600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>344200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>306700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>320900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>302300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>297800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>263800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>242700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>217900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>216800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>216900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>239100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>177100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>182000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4186,10 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4000,8 +4262,14 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,47 +4342,53 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F59" s="3">
         <v>9000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>9200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>8100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4127,11 +4401,11 @@
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4148,8 +4422,14 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,8 +4502,14 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4237,10 +4523,10 @@
         <v>10000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4296,8 +4582,14 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4316,29 +4608,29 @@
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
+      <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
+        <v>100</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
@@ -4349,11 +4641,11 @@
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4370,8 +4662,14 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4902,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>529400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>515100</v>
+      </c>
+      <c r="F66" s="3">
         <v>517500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>493800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>507100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>555900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>822700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>470500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>389500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>321800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>321000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>323300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>311500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>274900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>289500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>271300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>267000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>233300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>210900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>186300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>185300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>185800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>226200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>163900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5332,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F72" s="3">
         <v>24800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>24400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>23300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>22000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>20700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>18700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>16600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>15100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>15000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>14800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>14200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>13700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>13700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>13500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>13300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>13100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>14000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>13800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>13500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>13400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>13300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>13200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5652,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>41400</v>
+      </c>
+      <c r="F76" s="3">
         <v>42600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>42500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>41400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>39900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>38900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>37200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>35300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>33800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>33600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>33300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>32700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>31800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>31400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>31000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>30700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>30500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>31700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>31700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>31400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>31100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>12900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>13200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5812,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>600</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>100</v>
       </c>
       <c r="T81" s="3">
         <v>200</v>
       </c>
       <c r="U81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
         <v>200</v>
       </c>
       <c r="W81" s="3">
+        <v>200</v>
+      </c>
+      <c r="X81" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +6011,10 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5633,19 +6031,19 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -5675,7 +6073,7 @@
         <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
@@ -5687,10 +6085,16 @@
         <v>100</v>
       </c>
       <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6487,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F89" s="3">
         <v>29500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-11700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>24400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>20200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-54000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-28400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>10600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-4900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>4000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>3000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-6300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>17700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,31 +6601,33 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -6197,13 +6639,13 @@
         <v>-200</v>
       </c>
       <c r="N91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q91" s="3">
         <v>-200</v>
@@ -6212,31 +6654,37 @@
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
       </c>
       <c r="W91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6837,94 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-94900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-16700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>16700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-33000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-6000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-52800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-6500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>5400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-11500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-29000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-25000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-24100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-16900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-12200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-18900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7267,94 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>23300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-12200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-47800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-267800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>350700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>78500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>65500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>5500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>36000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-14400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>18300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>4200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>33700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>21100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>24700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-22500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>62600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7427,90 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
         <v>36100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-58600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-276400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>367500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>18500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>8100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-6600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>7000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>7400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-4100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>11000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-8700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-13000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-19000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-40900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>76500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>HVBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,167 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E8" s="3">
         <v>4900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2700</v>
       </c>
       <c r="R8" s="3">
         <v>2700</v>
@@ -830,34 +834,37 @@
         <v>2700</v>
       </c>
       <c r="T8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U8" s="3">
         <v>2400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1700</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1500</v>
       </c>
       <c r="Y8" s="3">
         <v>1500</v>
       </c>
       <c r="Z8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA8" s="3">
         <v>1300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
-      </c>
-      <c r="U17" s="3">
-        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>400</v>
       </c>
       <c r="W17" s="3">
+        <v>400</v>
+      </c>
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>200</v>
       </c>
       <c r="Z17" s="3">
         <v>200</v>
       </c>
       <c r="AA17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E18" s="3">
         <v>3700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3800</v>
       </c>
       <c r="G18" s="3">
         <v>3800</v>
       </c>
       <c r="H18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1800</v>
       </c>
       <c r="P18" s="3">
         <v>1800</v>
       </c>
       <c r="Q18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R18" s="3">
         <v>1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1600</v>
-      </c>
-      <c r="V18" s="3">
-        <v>1500</v>
       </c>
       <c r="W18" s="3">
         <v>1500</v>
       </c>
       <c r="X18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y18" s="3">
         <v>1200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1300</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>1100</v>
       </c>
       <c r="AA18" s="3">
         <v>1100</v>
       </c>
       <c r="AB18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC18" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,88 +1616,92 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-1800</v>
       </c>
       <c r="O20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1700</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1500</v>
       </c>
       <c r="U20" s="3">
         <v>-1500</v>
       </c>
       <c r="V20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-900</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-1100</v>
       </c>
       <c r="Z20" s="3">
         <v>-1100</v>
       </c>
       <c r="AA20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,79 +1709,82 @@
         <v>1000</v>
       </c>
       <c r="E21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3000</v>
       </c>
       <c r="K21" s="3">
         <v>3000</v>
       </c>
       <c r="L21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M21" s="3">
         <v>2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>200</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
       <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,8 +1863,11 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1832,58 +1875,58 @@
         <v>800</v>
       </c>
       <c r="E23" s="3">
+        <v>800</v>
+      </c>
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1800</v>
       </c>
       <c r="I23" s="3">
         <v>1800</v>
       </c>
       <c r="J23" s="3">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="K23" s="3">
         <v>2800</v>
       </c>
       <c r="L23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>300</v>
       </c>
       <c r="W23" s="3">
         <v>300</v>
@@ -1892,54 +1935,57 @@
         <v>300</v>
       </c>
       <c r="Y23" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>500</v>
       </c>
       <c r="I24" s="3">
         <v>500</v>
       </c>
       <c r="J24" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K24" s="3">
         <v>800</v>
       </c>
       <c r="L24" s="3">
+        <v>800</v>
+      </c>
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -1948,22 +1994,22 @@
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
         <v>100</v>
@@ -1972,19 +2018,22 @@
         <v>100</v>
       </c>
       <c r="Y24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,67 +2112,70 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E26" s="3">
         <v>600</v>
       </c>
       <c r="F26" s="3">
+        <v>600</v>
+      </c>
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1300</v>
       </c>
       <c r="I26" s="3">
         <v>1300</v>
       </c>
       <c r="J26" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="K26" s="3">
         <v>2100</v>
       </c>
       <c r="L26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>200</v>
       </c>
       <c r="W26" s="3">
         <v>200</v>
@@ -2132,78 +2184,81 @@
         <v>200</v>
       </c>
       <c r="Y26" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z26" s="3">
         <v>100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E27" s="3">
         <v>600</v>
       </c>
       <c r="F27" s="3">
+        <v>600</v>
+      </c>
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1300</v>
       </c>
       <c r="I27" s="3">
         <v>1300</v>
       </c>
       <c r="J27" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="K27" s="3">
         <v>2100</v>
       </c>
       <c r="L27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>100</v>
       </c>
       <c r="R27" s="3">
         <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>200</v>
       </c>
       <c r="W27" s="3">
         <v>200</v>
@@ -2212,19 +2267,22 @@
         <v>200</v>
       </c>
       <c r="Y27" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z27" s="3">
         <v>100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,147 +2610,153 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>1800</v>
       </c>
       <c r="O32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1700</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1500</v>
       </c>
       <c r="U32" s="3">
         <v>1500</v>
       </c>
       <c r="V32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W32" s="3">
         <v>1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>900</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>1100</v>
       </c>
       <c r="Z32" s="3">
         <v>1100</v>
       </c>
       <c r="AA32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB32" s="3">
         <v>700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E33" s="3">
         <v>600</v>
       </c>
       <c r="F33" s="3">
+        <v>600</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1300</v>
       </c>
       <c r="I33" s="3">
         <v>1300</v>
       </c>
       <c r="J33" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="K33" s="3">
         <v>2100</v>
       </c>
       <c r="L33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>200</v>
       </c>
       <c r="W33" s="3">
         <v>200</v>
@@ -2692,19 +2765,22 @@
         <v>200</v>
       </c>
       <c r="Y33" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z33" s="3">
         <v>100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,67 +2859,70 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E35" s="3">
         <v>600</v>
       </c>
       <c r="F35" s="3">
+        <v>600</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1300</v>
       </c>
       <c r="I35" s="3">
         <v>1300</v>
       </c>
       <c r="J35" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="K35" s="3">
         <v>2100</v>
       </c>
       <c r="L35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>200</v>
       </c>
       <c r="W35" s="3">
         <v>200</v>
@@ -2852,104 +2931,110 @@
         <v>200</v>
       </c>
       <c r="Y35" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z35" s="3">
         <v>100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,168 +3094,175 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E41" s="3">
         <v>5500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1500</v>
       </c>
       <c r="O41" s="3">
         <v>1500</v>
       </c>
       <c r="P41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>37600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>74300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E42" s="3">
         <v>31600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>109300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>114300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>75300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>73100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>136300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>413000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>45400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>27100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>18500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>25700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>18900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>15600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>13400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>13600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>13700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>13900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>27100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>9900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>14100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>5800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3541,14 +3646,14 @@
       <c r="S47" s="3">
         <v>500</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
+      <c r="T47" s="3">
+        <v>500</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3568,64 +3673,67 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E48" s="3">
         <v>11200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>10700</v>
       </c>
       <c r="L48" s="3">
         <v>10700</v>
       </c>
       <c r="M48" s="3">
+        <v>10700</v>
+      </c>
+      <c r="N48" s="3">
         <v>8800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2200</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2000</v>
       </c>
       <c r="S48" s="3">
         <v>2000</v>
       </c>
       <c r="T48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U48" s="3">
         <v>1900</v>
-      </c>
-      <c r="U48" s="3">
-        <v>1800</v>
       </c>
       <c r="V48" s="3">
         <v>1800</v>
@@ -3640,16 +3748,19 @@
         <v>1800</v>
       </c>
       <c r="Z48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AA48" s="3">
         <v>1700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3660,29 +3771,29 @@
         <v>200</v>
       </c>
       <c r="F49" s="3">
-        <v>3400</v>
+        <v>200</v>
       </c>
       <c r="G49" s="3">
         <v>3400</v>
       </c>
       <c r="H49" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I49" s="3">
         <v>3100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>500</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3698,8 +3809,8 @@
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3933,43 +4053,46 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>600</v>
-      </c>
-      <c r="T52" s="3">
-        <v>500</v>
       </c>
       <c r="U52" s="3">
         <v>500</v>
       </c>
       <c r="V52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W52" s="3">
         <v>400</v>
       </c>
       <c r="X52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y52" s="3">
         <v>300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>100</v>
       </c>
-      <c r="AB52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>603300</v>
+      </c>
+      <c r="E54" s="3">
         <v>570600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>556500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>560100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>536300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>548600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>595700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>861600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>507700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>424700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>355600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>354600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>356600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>344200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>306700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>320900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>302300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>297800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>263800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>242700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>217900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>216800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>216900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>239100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>177100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>182000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,50 +4482,53 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E59" s="3">
         <v>8600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7900</v>
-      </c>
-      <c r="K59" s="3">
-        <v>8100</v>
       </c>
       <c r="L59" s="3">
         <v>8100</v>
       </c>
       <c r="M59" s="3">
+        <v>8100</v>
+      </c>
+      <c r="N59" s="3">
         <v>6300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4407,8 +4544,8 @@
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4428,8 +4565,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4529,7 +4672,7 @@
         <v>10000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4588,43 +4731,46 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -4632,8 +4778,8 @@
       <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
+      <c r="Q62" s="3">
+        <v>100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
@@ -4647,8 +4793,8 @@
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>561800</v>
+      </c>
+      <c r="E66" s="3">
         <v>529400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>515100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>517500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>493800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>507100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>555900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>822700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>470500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>389500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>321800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>321000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>323300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>311500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>274900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>289500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>271300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>267000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>233300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>210900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>186300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>185300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>185800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>226200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>163900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E72" s="3">
         <v>26000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>25400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>24800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>24400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>23300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>22000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>13700</v>
       </c>
       <c r="R72" s="3">
         <v>13700</v>
       </c>
       <c r="S72" s="3">
+        <v>13700</v>
+      </c>
+      <c r="T72" s="3">
         <v>13500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>13800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>13500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>13400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>13300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>13200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E76" s="3">
         <v>41200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>42600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>42500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>39900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>38900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>33300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>32700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>31800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>31400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>31000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>30700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>30500</v>
-      </c>
-      <c r="V76" s="3">
-        <v>31700</v>
       </c>
       <c r="W76" s="3">
         <v>31700</v>
       </c>
       <c r="X76" s="3">
+        <v>31700</v>
+      </c>
+      <c r="Y76" s="3">
         <v>31400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>31100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,152 +6007,158 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E81" s="3">
         <v>600</v>
       </c>
       <c r="F81" s="3">
+        <v>600</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1300</v>
       </c>
       <c r="I81" s="3">
         <v>1300</v>
       </c>
       <c r="J81" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="K81" s="3">
         <v>2100</v>
       </c>
       <c r="L81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>200</v>
       </c>
       <c r="W81" s="3">
         <v>200</v>
@@ -5972,19 +6167,22 @@
         <v>200</v>
       </c>
       <c r="Y81" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z81" s="3">
         <v>100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6037,16 +6236,16 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -6079,22 +6278,25 @@
         <v>100</v>
       </c>
       <c r="X83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
         <v>100</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
       <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
         <v>100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>24400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-54000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-28400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>17700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,46 +6823,47 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-400</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
       </c>
       <c r="J91" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-200</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
@@ -6651,13 +6872,13 @@
         <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
@@ -6666,10 +6887,10 @@
         <v>-100</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y91" s="3">
         <v>-100</v>
@@ -6678,13 +6899,16 @@
         <v>-100</v>
       </c>
       <c r="AA91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-94900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>16700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-33000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-52800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-29000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-24100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-16900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-12200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-18900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7516,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E100" s="3">
         <v>15600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>23300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-12200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-47800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-267800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>350700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>78500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>65500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>36000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>18300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>33700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>21100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>24700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-22500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>62600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-84000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>36100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-58600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-276400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>367500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-13000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-40900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>76500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HVBC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>HVBC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F8" s="3">
         <v>6200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2900</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2700</v>
-      </c>
-      <c r="S8" s="3">
-        <v>2700</v>
       </c>
       <c r="T8" s="3">
         <v>2700</v>
       </c>
       <c r="U8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="W8" s="3">
         <v>2400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>1400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1300</v>
       </c>
       <c r="Q17" s="3">
         <v>1100</v>
       </c>
       <c r="R17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
-      </c>
-      <c r="X17" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>300</v>
       </c>
       <c r="Z17" s="3">
         <v>200</v>
       </c>
       <c r="AA17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD17" s="3">
         <v>300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F18" s="3">
         <v>4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>2100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>2000</v>
       </c>
       <c r="O18" s="3">
         <v>2100</v>
       </c>
       <c r="P18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R18" s="3">
         <v>1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>2000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>1300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>1100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>1100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,91 +1682,99 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1800</v>
       </c>
       <c r="T20" s="3">
         <v>-1700</v>
       </c>
       <c r="U20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-900</v>
       </c>
       <c r="Z20" s="3">
         <v>-1100</v>
       </c>
       <c r="AA20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1709,82 +1782,88 @@
         <v>1000</v>
       </c>
       <c r="E21" s="3">
+        <v>600</v>
+      </c>
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>400</v>
-      </c>
-      <c r="U21" s="3">
-        <v>300</v>
-      </c>
-      <c r="V21" s="3">
-        <v>200</v>
       </c>
       <c r="W21" s="3">
         <v>300</v>
       </c>
       <c r="X21" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Y21" s="3">
         <v>300</v>
       </c>
       <c r="Z21" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB21" s="3">
         <v>200</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
         <v>400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,174 +1945,192 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>400</v>
+      </c>
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>300</v>
-      </c>
-      <c r="V23" s="3">
-        <v>100</v>
       </c>
       <c r="W23" s="3">
         <v>300</v>
       </c>
       <c r="X23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="3">
         <v>300</v>
       </c>
       <c r="Z23" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB23" s="3">
         <v>100</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
-      </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="3">
         <v>100</v>
       </c>
       <c r="Z24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>200</v>
-      </c>
-      <c r="V26" s="3">
-        <v>100</v>
       </c>
       <c r="W26" s="3">
         <v>200</v>
       </c>
       <c r="X26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y26" s="3">
         <v>200</v>
       </c>
       <c r="Z26" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB26" s="3">
         <v>100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
         <v>300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>200</v>
-      </c>
-      <c r="V27" s="3">
-        <v>100</v>
       </c>
       <c r="W27" s="3">
         <v>200</v>
       </c>
       <c r="X27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="3">
         <v>200</v>
       </c>
       <c r="Z27" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB27" s="3">
         <v>100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F32" s="3">
         <v>3900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1800</v>
       </c>
       <c r="T32" s="3">
         <v>1700</v>
       </c>
       <c r="U32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W32" s="3">
         <v>1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1300</v>
-      </c>
-      <c r="X32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>900</v>
       </c>
       <c r="Z32" s="3">
         <v>1100</v>
       </c>
       <c r="AA32" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB32" s="3">
         <v>1100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD32" s="3">
         <v>700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>200</v>
-      </c>
-      <c r="V33" s="3">
-        <v>100</v>
       </c>
       <c r="W33" s="3">
         <v>200</v>
       </c>
       <c r="X33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="3">
         <v>200</v>
       </c>
       <c r="Z33" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB33" s="3">
         <v>100</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>200</v>
-      </c>
-      <c r="V35" s="3">
-        <v>100</v>
       </c>
       <c r="W35" s="3">
         <v>200</v>
       </c>
       <c r="X35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y35" s="3">
         <v>200</v>
       </c>
       <c r="Z35" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB35" s="3">
         <v>100</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,174 +3266,188 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F41" s="3">
         <v>5900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>9400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1700</v>
       </c>
       <c r="M41" s="3">
         <v>1600</v>
       </c>
       <c r="N41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P41" s="3">
         <v>2000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1500</v>
-      </c>
-      <c r="P41" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>1300</v>
       </c>
       <c r="R41" s="3">
         <v>1500</v>
       </c>
       <c r="S41" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T41" s="3">
         <v>1500</v>
       </c>
       <c r="U41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W41" s="3">
         <v>1300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>37600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>74300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>6200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F42" s="3">
         <v>21200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>31600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>109300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>114300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>75300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>73100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>136300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>413000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>45400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>27100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>18500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>19200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>25700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>18900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>11400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>15600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>4500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>13400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>13600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>13700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>13900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>27100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>9900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>14100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>5800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3529,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3707,14 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3796,14 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3649,17 +3858,17 @@
       <c r="T47" s="3">
         <v>500</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="U47" s="3">
+        <v>500</v>
+      </c>
+      <c r="V47" s="3">
+        <v>500</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3676,70 +3885,76 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F48" s="3">
         <v>10800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>11200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>11500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>11800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>12200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>12500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>10500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>10700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>10700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>8100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1900</v>
-      </c>
-      <c r="V48" s="3">
-        <v>1800</v>
-      </c>
-      <c r="W48" s="3">
-        <v>1800</v>
       </c>
       <c r="X48" s="3">
         <v>1800</v>
@@ -3751,16 +3966,22 @@
         <v>1800</v>
       </c>
       <c r="AA48" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="AB48" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="AC48" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3774,32 +3995,32 @@
         <v>200</v>
       </c>
       <c r="G49" s="3">
+        <v>200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>200</v>
+      </c>
+      <c r="I49" s="3">
         <v>3400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>500</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3812,11 +4033,11 @@
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3842,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4056,43 +4295,49 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>300</v>
-      </c>
-      <c r="S52" s="3">
-        <v>500</v>
-      </c>
-      <c r="T52" s="3">
-        <v>600</v>
       </c>
       <c r="U52" s="3">
         <v>500</v>
       </c>
       <c r="V52" s="3">
+        <v>600</v>
+      </c>
+      <c r="W52" s="3">
         <v>500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y52" s="3">
         <v>400</v>
-      </c>
-      <c r="X52" s="3">
-        <v>400</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>300</v>
       </c>
       <c r="Z52" s="3">
         <v>400</v>
       </c>
       <c r="AA52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC52" s="3">
         <v>600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>100</v>
       </c>
-      <c r="AC52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>625500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>615800</v>
+      </c>
+      <c r="F54" s="3">
         <v>603300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>570600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>556500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>560100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>536300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>548600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>595700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>861600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>507700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>424700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>355600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>354600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>356600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>344200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>306700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>320900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>302300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>297800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>263800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>242700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>217900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>216800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>216900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>239100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>177100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>182000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4578,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4402,8 +4663,14 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,56 +4752,62 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F59" s="3">
         <v>8400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>8600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>8800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>8100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>8100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>6000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4547,11 +4820,11 @@
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4568,8 +4841,14 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,8 +4930,14 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4675,10 +4960,10 @@
         <v>10000</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -4734,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4760,32 +5051,32 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>300</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
+      <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
+        <v>100</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
@@ -4796,11 +5087,11 @@
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4817,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>582200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>573700</v>
+      </c>
+      <c r="F66" s="3">
         <v>561800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>529400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>515100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>517500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>493800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>507100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>555900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>822700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>470500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>389500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>321800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>321000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>323300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>311500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>274900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>289500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>271300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>267000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>233300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>210900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>186300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>185300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>185800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>226200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>163900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F72" s="3">
         <v>26700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>26000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>25400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>24800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>24400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>23300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>22000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>20700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>18700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>16600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>15100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>15000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>14800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>14200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>13700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>13700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>13500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>13300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>13100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>14000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>13800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>13500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>13400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>13300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>13200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41400</v>
+        <v>43400</v>
       </c>
       <c r="E76" s="3">
-        <v>41200</v>
+        <v>42100</v>
       </c>
       <c r="F76" s="3">
         <v>41400</v>
       </c>
       <c r="G76" s="3">
+        <v>41200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>41400</v>
+      </c>
+      <c r="I76" s="3">
         <v>42600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>42500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>41400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>39900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>38900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>37200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>35300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>33800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>33600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>33300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>32700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>31800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>31400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>31000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>30700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>30500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>31700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>31700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>31400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>31100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>12900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>13200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>200</v>
-      </c>
-      <c r="V81" s="3">
-        <v>100</v>
       </c>
       <c r="W81" s="3">
         <v>200</v>
       </c>
       <c r="X81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="3">
         <v>200</v>
       </c>
       <c r="Z81" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB81" s="3">
         <v>100</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,13 +6607,15 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -6239,19 +6636,19 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -6281,7 +6678,7 @@
         <v>100</v>
       </c>
       <c r="Y83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z83" s="3">
         <v>100</v>
@@ -6293,10 +6690,16 @@
         <v>100</v>
       </c>
       <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F89" s="3">
         <v>4600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>28800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>29500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-11700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>24400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>20200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-54000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-28400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>10600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-4900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>4000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-1400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>3000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>17700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6833,31 +7274,31 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-300</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
@@ -6869,13 +7310,13 @@
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R91" s="3">
         <v>-200</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T91" s="3">
         <v>-200</v>
@@ -6884,31 +7325,37 @@
         <v>-100</v>
       </c>
       <c r="V91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
       </c>
       <c r="X91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>-100</v>
       </c>
       <c r="Z91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA91" s="3">
         <v>-100</v>
       </c>
       <c r="AB91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-47000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-94900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-27100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-16700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>16700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-33000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-6000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-52800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-6500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>5400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-8200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-11500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-29000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-25000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-24100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-16900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-12200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-18900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-3800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +8004,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F100" s="3">
         <v>32400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>15600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>23300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-12200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-47800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-267800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>350700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>78500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>65500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>5500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>36000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-14400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>18300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>4200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>33700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>21100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>24700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-22500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>62600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-4900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +8182,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-10000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-84000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>36100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-58600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-276400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>367500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>18500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>8100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-6600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>7000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>7400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-4100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>11000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-8700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-19000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-40900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>76500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-200</v>
       </c>
     </row>
